--- a/a/QueryResourceAccessAbility_1.0.xlsx
+++ b/a/QueryResourceAccessAbility_1.0.xlsx
@@ -504,53 +504,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.1.8</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
-  </si>
-  <si>
-    <t>1.1.1.8</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,18 +699,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,151 +1101,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -1262,174 +1263,174 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>51</v>
@@ -1440,7 +1441,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1448,16 +1449,16 @@
         <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>55</v>
@@ -1468,7 +1469,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1483,7 +1484,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
@@ -1498,7 +1499,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
@@ -1511,7 +1512,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
@@ -1524,7 +1525,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
@@ -1539,7 +1540,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
@@ -1554,7 +1555,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
@@ -1569,7 +1570,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
@@ -1584,7 +1585,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
@@ -1599,7 +1600,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
         <v>97</v>
       </c>
@@ -1614,7 +1615,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
@@ -1629,7 +1630,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
@@ -1644,7 +1645,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
@@ -1659,7 +1660,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>101</v>
       </c>
@@ -1674,7 +1675,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
@@ -1689,7 +1690,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>103</v>
       </c>
@@ -1705,6 +1706,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A15:A25"/>
     <mergeCell ref="A26:A44"/>
     <mergeCell ref="C5:E5"/>
@@ -1715,13 +1723,6 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/a/QueryResourceAccessAbility_1.0.xlsx
+++ b/a/QueryResourceAccessAbility_1.0.xlsx
@@ -699,18 +699,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,151 +1101,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1278,7 +1278,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>111</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>118</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>105</v>
       </c>
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>114</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>115</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>107</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>109</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1441,7 +1441,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2" t="s">
         <v>93</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="2" t="s">
         <v>95</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
         <v>97</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2" t="s">
         <v>101</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="2" t="s">
         <v>103</v>
       </c>
@@ -1706,13 +1706,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A15:A25"/>
     <mergeCell ref="A26:A44"/>
     <mergeCell ref="C5:E5"/>
@@ -1723,6 +1716,13 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
